--- a/MAJ-IG-ContenuDossier/ig/all-profiles.xlsx
+++ b/MAJ-IG-ContenuDossier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:32:29+00:00</t>
+    <t>2024-06-18T14:32:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ-IG-ContenuDossier/ig/all-profiles.xlsx
+++ b/MAJ-IG-ContenuDossier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:32:55+00:00</t>
+    <t>2024-06-18T14:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
